--- a/Mysite/Chart.xlsx
+++ b/Mysite/Chart.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Most Challenging</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">How to do research in CS. Various techniques that are used to improve query performance in datawarehouses </t>
-  </si>
-  <si>
-    <t>Various ways of indexing  dataware houses. How to do research in CS. I also liked projects for Neural Networks, OS II, and Parallel Programming</t>
   </si>
   <si>
     <t>The first semester was quite challenging after moving to Canada, I had to work on various projects for the course I had taken.</t>
@@ -83,11 +80,6 @@
     <t>Probably some bugs that I had to work with during my OS II class. Many involved context switching and that was difficult to debug</t>
   </si>
   <si>
-    <t>On a project for Software Engineering, I was assigned to work with
-I pulled him aside to speak about the course and then moved the discussion into talking about the project
-He was still the weakest member of the team, but he got a lot better. He was able to finish all his work on time, and he contributing more in discussions. We were happy to work with him on a future project.</t>
-  </si>
-  <si>
     <t>Working and learning from my professors. I learned a lot from both Daniel Lemire, and Owen Kaser.</t>
   </si>
   <si>
@@ -116,13 +108,16 @@
   </si>
   <si>
     <t>I haven't really had conflicts with teammates in the company. I have expressed my opinion regarding keeping certain code simple rather than adding a level of indirection.</t>
+  </si>
+  <si>
+    <t>Various ways of indexing  dataware houses. How to do research in CS. I also liked projects for Neural Networks, OS II, and Parallel Programming Compared two learning algorithms for neural networks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,7 +256,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -296,7 +290,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,163 +465,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="23" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:6" ht="116.25" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="116.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="116.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="116.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="116.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="3" spans="2:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:6" ht="255" hidden="1">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
